--- a/03_CarryTask/02_Data_clean/SPX_btm_resample_fail_clean.xlsx
+++ b/03_CarryTask/02_Data_clean/SPX_btm_resample_fail_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Dropbox/00 UZH/Master/PMP/01. Offline PMP/PMP Coding/Vitznau/03_CarryTask/02_Data_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC60A7AF-47A3-1C49-B07B-DD32ABD17445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D365374-1199-F24F-BDCB-5263113A33DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29260" windowHeight="16760" xr2:uid="{85DBB1F0-7FA9-4546-BDDF-3DB5D096B2F7}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:SG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="2" spans="1:501" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44227</v>
+        <v>44592</v>
       </c>
       <c r="B2">
         <v>0.42288169868554093</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="3" spans="1:501" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44255</v>
+        <v>44620</v>
       </c>
       <c r="B3">
         <v>0.42288169868554093</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="4" spans="1:501" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="B4">
         <v>0.42288169868554093</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="5" spans="1:501" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44316</v>
+        <v>44681</v>
       </c>
       <c r="B5">
         <v>0.42288169868554093</v>
@@ -7929,7 +7929,7 @@
     </row>
     <row r="6" spans="1:501" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44347</v>
+        <v>44712</v>
       </c>
       <c r="B6">
         <v>0.42288169868554093</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="7" spans="1:501" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="B7">
         <v>0.42288169868554093</v>
